--- a/miniproject/questionRecord/Lectures/lecture2.xlsx
+++ b/miniproject/questionRecord/Lectures/lecture2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653">
   <si>
     <t>Concept</t>
   </si>
@@ -32,6 +32,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Meaning </t>
     </r>
     <r>
@@ -1952,7 +1959,7 @@
     <t>偷偷走出去</t>
   </si>
   <si>
-    <t xml:space="preserve">Relationships </t>
+    <t>Relationships</t>
   </si>
   <si>
     <t>Hong Kong people should welcome their mainland cousins.</t>
@@ -2088,9 +2095,6 @@
   </si>
   <si>
     <t>小鲜肉，(年长女人的)年轻男性情人</t>
-  </si>
-  <si>
-    <t>Relationships</t>
   </si>
   <si>
     <t>He can have his grandmother as a referee, he will still lose</t>
@@ -2108,11 +2112,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2182,45 +2186,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="方正书宋_GBK"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2242,11 +2215,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2259,17 +2291,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2289,6 +2313,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -2296,38 +2336,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2356,7 +2366,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2368,19 +2402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2392,13 +2414,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2410,25 +2444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2446,13 +2468,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2464,73 +2534,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2569,7 +2579,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2578,7 +2597,52 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2598,21 +2662,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2623,194 +2672,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2849,6 +2859,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3172,8 +3185,8 @@
   <sheetPr/>
   <dimension ref="A1:AB324"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="C210" sqref="C210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66071428571429" defaultRowHeight="12.4"/>
@@ -11801,16 +11814,16 @@
         <v>394</v>
       </c>
       <c r="C212" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>650</v>
       </c>
-      <c r="D212" s="4" t="s">
+      <c r="E212" s="4" t="s">
         <v>651</v>
       </c>
-      <c r="E212" s="4" t="s">
+      <c r="F212" s="14" t="s">
         <v>652</v>
-      </c>
-      <c r="F212" s="4" t="s">
-        <v>653</v>
       </c>
       <c r="G212" s="6"/>
       <c r="H212" s="6"/>
